--- a/Team-Data/2007-08/1-15-2007-08.xlsx
+++ b/Team-Data/2007-08/1-15-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J2" t="n">
         <v>77.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L2" t="n">
         <v>3.8</v>
@@ -696,28 +763,28 @@
         <v>11.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="O2" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="P2" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="n">
         <v>0.769</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S2" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T2" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U2" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="V2" t="n">
         <v>15.6</v>
@@ -738,22 +805,22 @@
         <v>22.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="AD2" t="n">
         <v>29</v>
       </c>
       <c r="AE2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG2" t="n">
         <v>17</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>16</v>
       </c>
       <c r="AH2" t="n">
         <v>4</v>
@@ -786,19 +853,19 @@
         <v>9</v>
       </c>
       <c r="AR2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -816,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="BB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>11.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -971,16 +1038,16 @@
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU3" t="n">
         <v>12</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
@@ -989,16 +1056,16 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-4</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1138,13 +1205,13 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
@@ -1165,7 +1232,7 @@
         <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX4" t="n">
         <v>15</v>
@@ -1177,13 +1244,13 @@
         <v>27</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>0.389</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,40 +1297,40 @@
         <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>85.3</v>
+        <v>85.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.418</v>
+        <v>0.417</v>
       </c>
       <c r="L5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>0.33</v>
+        <v>0.328</v>
       </c>
       <c r="O5" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P5" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.752</v>
+        <v>0.758</v>
       </c>
       <c r="R5" t="n">
         <v>14.2</v>
       </c>
       <c r="S5" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T5" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U5" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V5" t="n">
         <v>14.5</v>
@@ -1272,43 +1339,43 @@
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4</v>
+        <v>-3.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,25 +1384,25 @@
         <v>24</v>
       </c>
       <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO5" t="n">
         <v>24</v>
       </c>
-      <c r="AN5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>25</v>
       </c>
-      <c r="AP5" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1353,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>13</v>
@@ -1362,10 +1429,10 @@
         <v>18</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -1394,55 +1461,55 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
         <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.526</v>
+        <v>0.514</v>
       </c>
       <c r="H6" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I6" t="n">
-        <v>35.8</v>
+        <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.433</v>
+        <v>0.43</v>
       </c>
       <c r="L6" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M6" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="O6" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.717</v>
+        <v>0.719</v>
       </c>
       <c r="R6" t="n">
         <v>13.1</v>
       </c>
       <c r="S6" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U6" t="n">
         <v>19.1</v>
@@ -1451,46 +1518,46 @@
         <v>15.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X6" t="n">
         <v>4.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-2.2</v>
+        <v>-2.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
@@ -1505,19 +1572,19 @@
         <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR6" t="n">
         <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
@@ -1526,10 +1593,10 @@
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1684,13 +1751,13 @@
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1699,13 +1766,13 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT7" t="n">
         <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1729,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="n">
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.595</v>
+        <v>0.611</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="J8" t="n">
         <v>85.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L8" t="n">
         <v>6.1</v>
@@ -1788,73 +1855,73 @@
         <v>18.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O8" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R8" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="S8" t="n">
-        <v>33.1</v>
+        <v>33.5</v>
       </c>
       <c r="T8" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U8" t="n">
         <v>23.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W8" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y8" t="n">
         <v>4.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.8</v>
+        <v>107.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="n">
         <v>9</v>
       </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
@@ -1875,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>0.744</v>
+        <v>0.737</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,40 +2025,40 @@
         <v>36.7</v>
       </c>
       <c r="J9" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L9" t="n">
         <v>5.8</v>
       </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.365</v>
+        <v>0.359</v>
       </c>
       <c r="O9" t="n">
         <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R9" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="S9" t="n">
         <v>29.6</v>
       </c>
       <c r="T9" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U9" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V9" t="n">
         <v>11.5</v>
@@ -2000,25 +2067,25 @@
         <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA9" t="n">
         <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,10 +2097,10 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2054,7 +2121,7 @@
         <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
         <v>8</v>
@@ -2063,19 +2130,19 @@
         <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT9" t="n">
         <v>24</v>
       </c>
       <c r="AU9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2084,13 +2151,13 @@
         <v>2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>0.59</v>
+        <v>0.579</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="J10" t="n">
-        <v>89</v>
+        <v>89.2</v>
       </c>
       <c r="K10" t="n">
         <v>0.451</v>
@@ -2149,34 +2216,34 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O10" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P10" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R10" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
         <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U10" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W10" t="n">
         <v>8.699999999999999</v>
@@ -2191,19 +2258,19 @@
         <v>23.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2242,10 +2309,10 @@
         <v>21</v>
       </c>
       <c r="AR10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
@@ -2260,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY10" t="n">
         <v>25</v>
@@ -2269,13 +2336,13 @@
         <v>26</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>0.513</v>
+        <v>0.526</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2325,40 +2392,40 @@
         <v>81.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L11" t="n">
         <v>6.6</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.737</v>
+        <v>0.734</v>
       </c>
       <c r="R11" t="n">
         <v>12.3</v>
       </c>
       <c r="S11" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U11" t="n">
         <v>20.9</v>
       </c>
       <c r="V11" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W11" t="n">
         <v>7.8</v>
@@ -2370,37 +2437,37 @@
         <v>4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2436,16 +2503,16 @@
         <v>17</v>
       </c>
       <c r="AV11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AW11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX11" t="n">
         <v>3</v>
       </c>
       <c r="AY11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ11" t="n">
         <v>7</v>
@@ -2454,7 +2521,7 @@
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC11" t="n">
         <v>12</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>-1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>19</v>
@@ -2597,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
         <v>20</v>
@@ -2615,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2633,7 +2700,7 @@
         <v>30</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -2668,82 +2735,82 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.324</v>
+        <v>0.303</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="J13" t="n">
         <v>79.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.427</v>
+        <v>0.424</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M13" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="N13" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="O13" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="P13" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T13" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="W13" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y13" t="n">
         <v>5.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.9</v>
+        <v>-5.2</v>
       </c>
       <c r="AD13" t="n">
         <v>30</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2776,13 +2843,13 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>7</v>
@@ -2791,10 +2858,10 @@
         <v>26</v>
       </c>
       <c r="AS13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AU13" t="n">
         <v>15</v>
@@ -2806,19 +2873,19 @@
         <v>23</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -3032,88 +3099,88 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="n">
-        <v>0.263</v>
+        <v>0.27</v>
       </c>
       <c r="H15" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>80.90000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.462</v>
+        <v>0.459</v>
       </c>
       <c r="L15" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="M15" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.372</v>
+        <v>0.367</v>
       </c>
       <c r="O15" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.749</v>
+        <v>0.752</v>
       </c>
       <c r="R15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S15" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V15" t="n">
         <v>16.1</v>
       </c>
       <c r="W15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X15" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.2</v>
+        <v>100.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
         <v>27</v>
@@ -3122,46 +3189,46 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3170,16 +3237,16 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-6</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3304,7 +3371,7 @@
         <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>24</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3325,10 +3392,10 @@
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
@@ -3346,7 +3413,7 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
         <v>15</v>
@@ -3355,13 +3422,13 @@
         <v>16</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3483,16 +3550,16 @@
         <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK17" t="n">
         <v>14</v>
@@ -3501,7 +3568,7 @@
         <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN17" t="n">
         <v>20</v>
@@ -3510,7 +3577,7 @@
         <v>26</v>
       </c>
       <c r="AP17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
         <v>20</v>
@@ -3528,7 +3595,7 @@
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW17" t="n">
         <v>20</v>
@@ -3540,13 +3607,13 @@
         <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
         <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC17" t="n">
         <v>26</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
-        <v>0.135</v>
+        <v>0.139</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3599,64 +3666,64 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L18" t="n">
         <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O18" t="n">
         <v>14.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T18" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U18" t="n">
         <v>18.6</v>
       </c>
       <c r="V18" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W18" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="n">
         <v>6.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.5</v>
+        <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,13 +3738,13 @@
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>21</v>
@@ -3695,25 +3762,25 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -3725,7 +3792,7 @@
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,31 +3935,31 @@
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
         <v>16</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>21</v>
@@ -3910,7 +3977,7 @@
         <v>5</v>
       </c>
       <c r="BB19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -4020,28 +4087,28 @@
         <v>4</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>6</v>
       </c>
       <c r="AF20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
         <v>7</v>
       </c>
       <c r="AH20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI20" t="n">
         <v>7</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>8</v>
       </c>
       <c r="AJ20" t="n">
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4065,19 +4132,19 @@
         <v>15</v>
       </c>
       <c r="AS20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT20" t="n">
         <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -4124,64 +4191,64 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.297</v>
+        <v>0.278</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="J21" t="n">
         <v>80.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.435</v>
       </c>
       <c r="L21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M21" t="n">
         <v>17</v>
       </c>
       <c r="N21" t="n">
-        <v>0.338</v>
+        <v>0.329</v>
       </c>
       <c r="O21" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P21" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="Q21" t="n">
         <v>0.7</v>
       </c>
       <c r="R21" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T21" t="n">
         <v>42</v>
       </c>
       <c r="U21" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="V21" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W21" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
         <v>2.3</v>
@@ -4193,16 +4260,16 @@
         <v>21.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.5</v>
+        <v>-7</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4214,16 +4281,16 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>20</v>
@@ -4232,13 +4299,13 @@
         <v>18</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ21" t="n">
         <v>29</v>
@@ -4247,25 +4314,25 @@
         <v>4</v>
       </c>
       <c r="AS21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ21" t="n">
         <v>14</v>
@@ -4274,7 +4341,7 @@
         <v>17</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -4306,64 +4373,64 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J22" t="n">
-        <v>79.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.463</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M22" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O22" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="P22" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.723</v>
+        <v>0.72</v>
       </c>
       <c r="R22" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T22" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V22" t="n">
         <v>15.2</v>
       </c>
       <c r="W22" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X22" t="n">
         <v>4.4</v>
@@ -4372,7 +4439,7 @@
         <v>4.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA22" t="n">
         <v>24.2</v>
@@ -4381,7 +4448,7 @@
         <v>103.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4393,16 +4460,16 @@
         <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>6</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4420,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR22" t="n">
         <v>27</v>
@@ -4435,22 +4502,22 @@
         <v>9</v>
       </c>
       <c r="AU22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX22" t="n">
         <v>22</v>
       </c>
-      <c r="AV22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>23</v>
-      </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -4488,64 +4555,64 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
         <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>0.385</v>
+        <v>0.368</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J23" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L23" t="n">
         <v>3.9</v>
       </c>
       <c r="M23" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.325</v>
+        <v>0.322</v>
       </c>
       <c r="O23" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="P23" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.717</v>
+        <v>0.716</v>
       </c>
       <c r="R23" t="n">
         <v>13</v>
       </c>
       <c r="S23" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X23" t="n">
         <v>5.3</v>
@@ -4557,31 +4624,31 @@
         <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
         <v>25</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>16</v>
@@ -4596,10 +4663,10 @@
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>15</v>
@@ -4611,31 +4678,31 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AT23" t="n">
         <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -4670,97 +4737,97 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="n">
         <v>26</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="J24" t="n">
         <v>85.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.488</v>
+        <v>0.49</v>
       </c>
       <c r="L24" t="n">
         <v>8.9</v>
       </c>
       <c r="M24" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="O24" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P24" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q24" t="n">
         <v>0.776</v>
       </c>
       <c r="R24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S24" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="V24" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W24" t="n">
         <v>7.1</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z24" t="n">
         <v>19.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.8</v>
+        <v>110.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
       </c>
       <c r="AF24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL24" t="n">
         <v>3</v>
@@ -4781,10 +4848,10 @@
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ24" t="n">
         <v>6</v>
@@ -4811,19 +4878,19 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ24" t="n">
         <v>2</v>
       </c>
       <c r="BA24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4945,13 +5012,13 @@
         <v>2</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ25" t="n">
         <v>25</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
@@ -4981,7 +5048,7 @@
         <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV25" t="n">
         <v>7</v>
@@ -5002,10 +5069,10 @@
         <v>16</v>
       </c>
       <c r="BB25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,10 +5191,10 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -5157,7 +5224,7 @@
         <v>21</v>
       </c>
       <c r="AS26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5175,7 +5242,7 @@
         <v>28</v>
       </c>
       <c r="AY26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
@@ -5184,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>6</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>6</v>
@@ -5303,7 +5370,7 @@
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH27" t="n">
         <v>23</v>
@@ -5318,7 +5385,7 @@
         <v>11</v>
       </c>
       <c r="AL27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM27" t="n">
         <v>6</v>
@@ -5327,22 +5394,22 @@
         <v>3</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP27" t="n">
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>23</v>
       </c>
       <c r="AS27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU27" t="n">
         <v>9</v>
@@ -5351,7 +5418,7 @@
         <v>3</v>
       </c>
       <c r="AW27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -5476,28 +5543,28 @@
         <v>-7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
       </c>
       <c r="AF28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG28" t="n">
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL28" t="n">
         <v>25</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5539,13 +5606,13 @@
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ28" t="n">
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
         <v>18</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.526</v>
+        <v>0.541</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,19 +5665,19 @@
         <v>37.2</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K29" t="n">
         <v>0.451</v>
       </c>
       <c r="L29" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M29" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="N29" t="n">
-        <v>0.406</v>
+        <v>0.407</v>
       </c>
       <c r="O29" t="n">
         <v>15.6</v>
@@ -5619,13 +5686,13 @@
         <v>19.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.803</v>
+        <v>0.801</v>
       </c>
       <c r="R29" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S29" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T29" t="n">
         <v>41.1</v>
@@ -5634,7 +5701,7 @@
         <v>22.1</v>
       </c>
       <c r="V29" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="W29" t="n">
         <v>6.6</v>
@@ -5649,34 +5716,34 @@
         <v>20.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
         <v>15</v>
@@ -5703,13 +5770,13 @@
         <v>24</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
@@ -5718,22 +5785,22 @@
         <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ29" t="n">
         <v>9</v>
       </c>
-      <c r="AZ29" t="n">
-        <v>10</v>
-      </c>
       <c r="BA29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>4.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
         <v>12</v>
@@ -5861,10 +5928,10 @@
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
         <v>30</v>
@@ -5876,7 +5943,7 @@
         <v>4</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
@@ -5903,7 +5970,7 @@
         <v>25</v>
       </c>
       <c r="AY30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
@@ -5944,34 +6011,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="n">
         <v>20</v>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>0.541</v>
+        <v>0.556</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J31" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L31" t="n">
         <v>6.4</v>
       </c>
       <c r="M31" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="N31" t="n">
         <v>0.341</v>
@@ -5980,25 +6047,25 @@
         <v>19.8</v>
       </c>
       <c r="P31" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.797</v>
+        <v>0.801</v>
       </c>
       <c r="R31" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S31" t="n">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
       <c r="T31" t="n">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="U31" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="V31" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W31" t="n">
         <v>7.7</v>
@@ -6007,28 +6074,28 @@
         <v>5.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA31" t="n">
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
@@ -6037,13 +6104,13 @@
         <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6058,7 +6125,7 @@
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>3</v>
@@ -6067,19 +6134,19 @@
         <v>9</v>
       </c>
       <c r="AS31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT31" t="n">
         <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
         <v>14</v>
@@ -6088,13 +6155,13 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA31" t="n">
         <v>26</v>
       </c>
       <c r="BB31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-15-2007-08</t>
+          <t>2008-01-15</t>
         </is>
       </c>
     </row>
